--- a/Bin_data/Burley/Burley59.xlsx
+++ b/Bin_data/Burley/Burley59.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5159,6 +5159,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
